--- a/m1/Ejercicios/20191029/Basket.xlsx
+++ b/m1/Ejercicios/20191029/Basket.xlsx
@@ -328,14 +328,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1925,21 +1925,22 @@
     <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="2"/>
+    <col min="12" max="12" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="3"/>
       <c r="L1" s="2"/>
       <c r="M1" s="4"/>
@@ -2378,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="11" t="str">
-        <f t="shared" ref="K18:K28" si="3">IF(OR(J28&lt;H28,NOT(J28&gt;=H28)),"Sí","")</f>
+        <f t="shared" ref="K28" si="3">IF(OR(J28&lt;H28,NOT(J28&gt;=H28)),"Sí","")</f>
         <v/>
       </c>
     </row>
@@ -2399,11 +2400,11 @@
         <v>59</v>
       </c>
       <c r="H29" s="9"/>
-      <c r="I29" s="21">
+      <c r="I29" s="20">
         <f t="shared" si="4"/>
         <v>107</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>1</v>
       </c>
     </row>
@@ -2419,7 +2420,10 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="18"/>
+      <c r="K36" s="18">
+        <f>MIN(E17:E28)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="37" spans="2:11" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
